--- a/Listas de precios/minorista/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
+++ b/Listas de precios/minorista/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="7" t="n"/>
       <c r="F1" s="7" t="n"/>
@@ -992,15 +992,15 @@
     <row r="32" ht="13.5" customHeight="1" s="20" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
+++ b/Listas de precios/minorista/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="7" t="n"/>
       <c r="F1" s="7" t="n"/>
@@ -992,15 +992,15 @@
     <row r="32" ht="13.5" customHeight="1" s="20" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
+++ b/Listas de precios/minorista/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="7" t="n"/>
       <c r="F1" s="7" t="n"/>
@@ -992,15 +992,15 @@
     <row r="32" ht="13.5" customHeight="1" s="20" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
